--- a/subnational maps/TBSubnational/Data/PNG.xlsx
+++ b/subnational maps/TBSubnational/Data/PNG.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="630" yWindow="615" windowWidth="9255" windowHeight="6855"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="TBSubNat" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Country</t>
   </si>
@@ -97,42 +97,14 @@
     <t>NCD</t>
   </si>
   <si>
-    <t>Oro</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Number of new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SS+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> treatment cohort 2011</t>
-    </r>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t>Number of new treatment cohort 2011</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,7 +114,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -165,14 +144,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,45 +455,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -529,8 +514,8 @@
       <c r="E2">
         <v>663</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
+      <c r="F2">
+        <v>1</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -555,8 +540,8 @@
       <c r="E3">
         <v>763</v>
       </c>
-      <c r="F3" t="s">
-        <v>29</v>
+      <c r="F3">
+        <v>1</v>
       </c>
       <c r="G3">
         <v>52</v>
@@ -581,8 +566,8 @@
       <c r="E4">
         <v>493</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4">
         <v>68</v>
@@ -607,8 +592,8 @@
       <c r="E5">
         <v>929</v>
       </c>
-      <c r="F5" t="s">
-        <v>29</v>
+      <c r="F5">
+        <v>1</v>
       </c>
       <c r="G5">
         <v>119</v>
@@ -633,8 +618,8 @@
       <c r="E6">
         <v>1728</v>
       </c>
-      <c r="F6" t="s">
-        <v>29</v>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>96</v>
@@ -659,8 +644,8 @@
       <c r="E7">
         <v>614</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>43</v>
@@ -685,8 +670,8 @@
       <c r="E8">
         <v>923</v>
       </c>
-      <c r="F8" t="s">
-        <v>29</v>
+      <c r="F8">
+        <v>1</v>
       </c>
       <c r="G8">
         <v>11</v>
@@ -711,8 +696,8 @@
       <c r="E9">
         <v>1381</v>
       </c>
-      <c r="F9" t="s">
-        <v>29</v>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>296</v>
@@ -737,8 +722,8 @@
       <c r="E10">
         <v>62</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
+      <c r="F10">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -763,8 +748,8 @@
       <c r="E11">
         <v>581</v>
       </c>
-      <c r="F11" t="s">
-        <v>29</v>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11">
         <v>94</v>
@@ -789,8 +774,8 @@
       <c r="E12">
         <v>2276</v>
       </c>
-      <c r="F12" t="s">
-        <v>29</v>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>496</v>
@@ -815,8 +800,8 @@
       <c r="E13">
         <v>332</v>
       </c>
-      <c r="F13" t="s">
-        <v>29</v>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13">
         <v>71</v>
@@ -841,8 +826,8 @@
       <c r="E14">
         <v>281</v>
       </c>
-      <c r="F14" t="s">
-        <v>29</v>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14">
         <v>105</v>
@@ -867,8 +852,8 @@
       <c r="E15">
         <v>4919</v>
       </c>
-      <c r="F15" t="s">
-        <v>29</v>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15">
         <v>460</v>
@@ -893,8 +878,8 @@
       <c r="E16">
         <v>156</v>
       </c>
-      <c r="F16" t="s">
-        <v>29</v>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16">
         <v>23</v>
@@ -919,8 +904,8 @@
       <c r="E17">
         <v>748</v>
       </c>
-      <c r="F17" t="s">
-        <v>29</v>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
         <v>22</v>
@@ -945,8 +930,8 @@
       <c r="E18">
         <v>783</v>
       </c>
-      <c r="F18" t="s">
-        <v>29</v>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
         <v>43</v>
@@ -971,8 +956,8 @@
       <c r="E19">
         <v>822</v>
       </c>
-      <c r="F19" t="s">
-        <v>29</v>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19">
         <v>105</v>
@@ -997,34 +982,14 @@
       <c r="E20">
         <v>1334</v>
       </c>
-      <c r="F20" t="s">
-        <v>29</v>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20">
         <v>67</v>
       </c>
       <c r="H20">
         <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>180964</v>
-      </c>
-      <c r="E21">
-        <v>923</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21">
-        <v>134</v>
-      </c>
-      <c r="H21">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
